--- a/ANALYTIQUE/performance/data/data_ppt.xlsx
+++ b/ANALYTIQUE/performance/data/data_ppt.xlsx
@@ -1,14 +1,42 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Today - 2025-03-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 1 - 2025-03-06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 2 - 2025-02-06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 3 - 2024-11-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 4 - 2024-10-03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 1 - 2024-05-09" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 2 - 2023-05-10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 3 - 2022-04-04" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 4 - 2021-12-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratios - 1.0Y" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratios - 3.0Y" sheetId="11" state="visible" r:id="rId11"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +55,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +427,2269 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13147.413</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19157.027</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>27982</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18612</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2618</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4075</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.845</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4720</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12788</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4451</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17022</v>
+      </c>
+      <c r="D13" t="n">
+        <v>49.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>VAM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>37.77102437402036</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47.51638700336569</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.50937385930042</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.15768675029023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>105.4918069516623</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.38706876400556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5980431886835499</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4504272737041874</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5034942993684448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>VAM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.15230343928509</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.749562999135868</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.489797268574126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.70392996349126</v>
+      </c>
+      <c r="C3" t="n">
+        <v>138.7967095755056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.4671598278525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2236170095515192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01981000131447715</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04557090311101419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13144.169</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19157.027</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>27982</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18612</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2618</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4075</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4720</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12788</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4451</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.965</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17022</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13144.169</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19157.027</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25413</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85206</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18550</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3218</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4075</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4720</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12724</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7864</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4767</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18676</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17022</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13123.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19074.796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25803</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84502</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18364</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4648</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12538</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7761</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4377</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16920</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13123.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19074.796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84502</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18364</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4648</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12538</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7761</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6432</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16920</v>
+      </c>
+      <c r="D13" t="n">
+        <v>47.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13123.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19068.609</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.91038304567337e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C5" t="n">
+        <v>83348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18055</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2879</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3965</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4624</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12234</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7636</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4819</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18245</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3850</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8420</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19933.866</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43753.53499999998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22826</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50799</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33198</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2653</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8474</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3149</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2775</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5117</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4615</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68.79000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42333.99999999998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18478</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28695</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34340</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9529</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8330</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7796</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.945</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6889</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28678</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.7808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3170</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10852</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.06999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tactic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NBC5703</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NBEMECI CN Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TDCDCPLS CN Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40489.40099999998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>XBB CN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27063</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>XCB CN Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33983</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>XEF CN Equity</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3674</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9393</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>XEM CN Equity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>777</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8206</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>XHY CN Equity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XIG CN Equity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7740</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>XIU CN Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8986</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28493</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.7217</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XSB CN Equity</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>XUS CN Equity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3841</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10769</v>
+      </c>
+      <c r="D13" t="n">
+        <v>76.31999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ANALYTIQUE/performance/data/data_ppt.xlsx
+++ b/ANALYTIQUE/performance/data/data_ppt.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Today - 2025-03-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 1 - 2025-03-06" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 2 - 2025-02-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 3 - 2024-11-08" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 4 - 2024-10-03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 1 - 2024-05-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 2 - 2023-05-10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 3 - 2022-04-04" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 4 - 2021-12-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Today - 2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 1 - 2025-04-14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 2 - 2025-03-06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 3 - 2025-02-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tactic 4 - 2024-11-08" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 1 - 2025-06-03" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 2 - 2024-05-09" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 3 - 2023-05-10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strategic 4 - 2022-04-04" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratios - 1.0Y" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratios - 3.0Y" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13147.413</v>
+        <v>13144.169</v>
       </c>
       <c r="D2" t="n">
-        <v>11.85</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>19157.027</v>
       </c>
       <c r="D3" t="n">
-        <v>14.27</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.62</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="5">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27982</v>
+        <v>27983</v>
       </c>
       <c r="C5" t="n">
         <v>85439</v>
       </c>
       <c r="D5" t="n">
-        <v>28.61</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>18612</v>
+        <v>18613</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="7">
@@ -558,7 +558,7 @@
         <v>4075</v>
       </c>
       <c r="D7" t="n">
-        <v>40.845</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +574,7 @@
         <v>4720</v>
       </c>
       <c r="D8" t="n">
-        <v>34.54</v>
+        <v>39.91</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>12788</v>
       </c>
       <c r="D9" t="n">
-        <v>16.51</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="D10" t="n">
-        <v>19.71</v>
+        <v>20.255</v>
       </c>
     </row>
     <row r="11">
@@ -619,10 +619,10 @@
         <v>4451</v>
       </c>
       <c r="C11" t="n">
-        <v>18811</v>
+        <v>18809</v>
       </c>
       <c r="D11" t="n">
-        <v>37.55</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.025</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +654,7 @@
         <v>17022</v>
       </c>
       <c r="D13" t="n">
-        <v>49.58</v>
+        <v>56.59</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.77102437402036</v>
+        <v>18.27608782378309</v>
       </c>
       <c r="C2" t="n">
-        <v>47.51638700336569</v>
+        <v>19.92447995201374</v>
       </c>
       <c r="D2" t="n">
-        <v>45.50937385930042</v>
+        <v>19.5138701792863</v>
       </c>
     </row>
     <row r="3">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.15768675029023</v>
+        <v>64.19120570366302</v>
       </c>
       <c r="C3" t="n">
-        <v>105.4918069516623</v>
+        <v>91.10642330907883</v>
       </c>
       <c r="D3" t="n">
-        <v>90.38706876400556</v>
+        <v>76.04545645118047</v>
       </c>
     </row>
     <row r="4">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5980431886835499</v>
+        <v>0.2847132659908924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4504272737041874</v>
+        <v>0.2186945687069712</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5034942993684448</v>
+        <v>0.2566079696268741</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.15230343928509</v>
+        <v>22.61769335048847</v>
       </c>
       <c r="C2" t="n">
-        <v>2.749562999135868</v>
+        <v>55.0300817935745</v>
       </c>
       <c r="D2" t="n">
-        <v>5.489797268574126</v>
+        <v>48.52245000266598</v>
       </c>
     </row>
     <row r="3">
@@ -800,13 +800,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.70392996349126</v>
+        <v>71.69441651428369</v>
       </c>
       <c r="C3" t="n">
-        <v>138.7967095755056</v>
+        <v>116.6622895878754</v>
       </c>
       <c r="D3" t="n">
-        <v>120.4671598278525</v>
+        <v>100.8490820223607</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2236170095515192</v>
+        <v>0.3154735675404003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01981000131447715</v>
+        <v>0.4717041126826447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04557090311101419</v>
+        <v>0.4811392332942341</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +879,7 @@
         <v>13144.169</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="3">
@@ -895,7 +895,7 @@
         <v>19157.027</v>
       </c>
       <c r="D3" t="n">
-        <v>14.17</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +911,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.64</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="5">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27982</v>
+        <v>27983</v>
       </c>
       <c r="C5" t="n">
         <v>85439</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="6">
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>18612</v>
+        <v>18613</v>
       </c>
       <c r="D6" t="n">
-        <v>20.23</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>4075</v>
       </c>
       <c r="D7" t="n">
-        <v>41.32</v>
+        <v>38.45</v>
       </c>
     </row>
     <row r="8">
@@ -975,7 +975,7 @@
         <v>4720</v>
       </c>
       <c r="D8" t="n">
-        <v>34.85</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="9">
@@ -991,7 +991,7 @@
         <v>12788</v>
       </c>
       <c r="D9" t="n">
-        <v>16.71</v>
+        <v>16.255</v>
       </c>
     </row>
     <row r="10">
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="D10" t="n">
-        <v>19.81</v>
+        <v>19.305</v>
       </c>
     </row>
     <row r="11">
@@ -1020,10 +1020,10 @@
         <v>4451</v>
       </c>
       <c r="C11" t="n">
-        <v>18811</v>
+        <v>18809</v>
       </c>
       <c r="D11" t="n">
-        <v>37.33</v>
+        <v>36.27</v>
       </c>
     </row>
     <row r="12">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.965</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="13">
@@ -1055,7 +1055,7 @@
         <v>17022</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9</v>
+        <v>46.56</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>13144.169</v>
       </c>
       <c r="D2" t="n">
-        <v>12.35</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3">
@@ -1128,7 +1128,7 @@
         <v>19157.027</v>
       </c>
       <c r="D3" t="n">
-        <v>13.96</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="4">
@@ -1144,7 +1144,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.77</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="5">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25413</v>
+        <v>27983</v>
       </c>
       <c r="C5" t="n">
-        <v>85206</v>
+        <v>85439</v>
       </c>
       <c r="D5" t="n">
-        <v>28.89</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="6">
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>18550</v>
+        <v>18613</v>
       </c>
       <c r="D6" t="n">
-        <v>20.45</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="7">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3218</v>
+        <v>2618</v>
       </c>
       <c r="C7" t="n">
         <v>4075</v>
       </c>
       <c r="D7" t="n">
-        <v>39.92</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="8">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415</v>
+        <v>1865</v>
       </c>
       <c r="C8" t="n">
         <v>4720</v>
       </c>
       <c r="D8" t="n">
-        <v>34.105</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="9">
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12724</v>
+        <v>12788</v>
       </c>
       <c r="D9" t="n">
-        <v>16.78</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="10">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7864</v>
+        <v>7892</v>
       </c>
       <c r="D10" t="n">
-        <v>19.74</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="11">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4767</v>
+        <v>4451</v>
       </c>
       <c r="C11" t="n">
-        <v>18676</v>
+        <v>18809</v>
       </c>
       <c r="D11" t="n">
-        <v>38.89</v>
+        <v>37.33</v>
       </c>
     </row>
     <row r="12">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.06</v>
+        <v>26.965</v>
       </c>
     </row>
     <row r="13">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4481</v>
+        <v>3481</v>
       </c>
       <c r="C13" t="n">
         <v>17022</v>
       </c>
       <c r="D13" t="n">
-        <v>53.87</v>
+        <v>50.9</v>
       </c>
     </row>
   </sheetData>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13123.36</v>
+        <v>13144.169</v>
       </c>
       <c r="D2" t="n">
-        <v>11.81</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="3">
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19074.796</v>
+        <v>19157.027</v>
       </c>
       <c r="D3" t="n">
-        <v>13.72</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="4">
@@ -1377,7 +1377,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.66</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="5">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25803</v>
+        <v>25413</v>
       </c>
       <c r="C5" t="n">
-        <v>84502</v>
+        <v>85206</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="6">
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>18364</v>
+        <v>18550</v>
       </c>
       <c r="D6" t="n">
-        <v>20.19</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="7">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2564</v>
+        <v>3218</v>
       </c>
       <c r="C7" t="n">
-        <v>4033</v>
+        <v>4075</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="8">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1692</v>
+        <v>1415</v>
       </c>
       <c r="C8" t="n">
-        <v>4648</v>
+        <v>4720</v>
       </c>
       <c r="D8" t="n">
-        <v>34.3</v>
+        <v>34.105</v>
       </c>
     </row>
     <row r="9">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12538</v>
+        <v>12724</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="10">
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7761</v>
+        <v>7864</v>
       </c>
       <c r="D10" t="n">
-        <v>20.22</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="11">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4778</v>
+        <v>4767</v>
       </c>
       <c r="C11" t="n">
-        <v>18526</v>
+        <v>18676</v>
       </c>
       <c r="D11" t="n">
-        <v>37.61</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.73</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="13">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4377</v>
+        <v>4481</v>
       </c>
       <c r="C13" t="n">
-        <v>16920</v>
+        <v>17022</v>
       </c>
       <c r="D13" t="n">
-        <v>51.86</v>
+        <v>53.87</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1578,7 @@
         <v>13123.36</v>
       </c>
       <c r="D2" t="n">
-        <v>11.87</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="3">
@@ -1594,7 +1594,7 @@
         <v>19074.796</v>
       </c>
       <c r="D3" t="n">
-        <v>13.8</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="4">
@@ -1610,7 +1610,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.62</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="5">
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22473</v>
+        <v>25803</v>
       </c>
       <c r="C5" t="n">
         <v>84502</v>
       </c>
       <c r="D5" t="n">
-        <v>28.38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="6">
@@ -1642,7 +1642,7 @@
         <v>18364</v>
       </c>
       <c r="D6" t="n">
-        <v>20.08</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="7">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2594</v>
+        <v>2564</v>
       </c>
       <c r="C7" t="n">
         <v>4033</v>
       </c>
       <c r="D7" t="n">
-        <v>38.56</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="8">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1612</v>
+        <v>1692</v>
       </c>
       <c r="C8" t="n">
         <v>4648</v>
       </c>
       <c r="D8" t="n">
-        <v>34.84</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="9">
@@ -1690,7 +1690,7 @@
         <v>12538</v>
       </c>
       <c r="D9" t="n">
-        <v>16.92</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="10">
@@ -1706,7 +1706,7 @@
         <v>7761</v>
       </c>
       <c r="D10" t="n">
-        <v>20.67</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="11">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4538</v>
+        <v>4778</v>
       </c>
       <c r="C11" t="n">
         <v>18526</v>
       </c>
       <c r="D11" t="n">
-        <v>36.31</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="12">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.78</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="13">
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6432</v>
+        <v>4377</v>
       </c>
       <c r="C13" t="n">
         <v>16920</v>
       </c>
       <c r="D13" t="n">
-        <v>47.98</v>
+        <v>51.86</v>
       </c>
     </row>
   </sheetData>
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13123.36</v>
+        <v>13144.169</v>
       </c>
       <c r="D2" t="n">
-        <v>11.43</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="3">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19068.609</v>
+        <v>19157.027</v>
       </c>
       <c r="D3" t="n">
-        <v>13.03</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="4">
@@ -1843,7 +1843,7 @@
         <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.21</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="5">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19814</v>
+        <v>27983</v>
       </c>
       <c r="C5" t="n">
-        <v>83348</v>
+        <v>85439</v>
       </c>
       <c r="D5" t="n">
-        <v>27.35</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="6">
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>18055</v>
+        <v>18613</v>
       </c>
       <c r="D6" t="n">
-        <v>19.4</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="7">
@@ -1885,13 +1885,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2879</v>
+        <v>2618</v>
       </c>
       <c r="C7" t="n">
-        <v>3965</v>
+        <v>4075</v>
       </c>
       <c r="D7" t="n">
-        <v>37.87</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="8">
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1613</v>
+        <v>1865</v>
       </c>
       <c r="C8" t="n">
-        <v>4624</v>
+        <v>4720</v>
       </c>
       <c r="D8" t="n">
-        <v>32.015</v>
+        <v>34.76</v>
       </c>
     </row>
     <row r="9">
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12234</v>
+        <v>12788</v>
       </c>
       <c r="D9" t="n">
-        <v>16.32</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="10">
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7636</v>
+        <v>7892</v>
       </c>
       <c r="D10" t="n">
-        <v>19.7</v>
+        <v>19.475</v>
       </c>
     </row>
     <row r="11">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4819</v>
+        <v>4451</v>
       </c>
       <c r="C11" t="n">
-        <v>18245</v>
+        <v>18809</v>
       </c>
       <c r="D11" t="n">
-        <v>34.01</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="12">
@@ -1965,13 +1965,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.05</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="13">
@@ -1981,13 +1981,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2487</v>
+        <v>3481</v>
       </c>
       <c r="C13" t="n">
-        <v>8420</v>
+        <v>17022</v>
       </c>
       <c r="D13" t="n">
-        <v>88.64</v>
+        <v>50.94</v>
       </c>
     </row>
   </sheetData>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13123.36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="3">
@@ -2057,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19933.866</v>
+        <v>19068.609</v>
       </c>
       <c r="D3" t="n">
-        <v>11.59</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="4">
@@ -2073,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43753.53499999998</v>
+        <v>-2.91038304567337e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.41</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="5">
@@ -2086,13 +2086,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22826</v>
+        <v>19814</v>
       </c>
       <c r="C5" t="n">
-        <v>50799</v>
+        <v>83348</v>
       </c>
       <c r="D5" t="n">
-        <v>27.97</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="6">
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>33198</v>
+        <v>18055</v>
       </c>
       <c r="D6" t="n">
-        <v>19.33</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="7">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2653</v>
+        <v>2879</v>
       </c>
       <c r="C7" t="n">
-        <v>8474</v>
+        <v>3965</v>
       </c>
       <c r="D7" t="n">
-        <v>34.07</v>
+        <v>37.87</v>
       </c>
     </row>
     <row r="8">
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575</v>
+        <v>1613</v>
       </c>
       <c r="C8" t="n">
-        <v>3149</v>
+        <v>4624</v>
       </c>
       <c r="D8" t="n">
-        <v>28.98</v>
+        <v>32.015</v>
       </c>
     </row>
     <row r="9">
@@ -2153,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2775</v>
+        <v>12234</v>
       </c>
       <c r="D9" t="n">
-        <v>15.97</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="10">
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5117</v>
+        <v>7636</v>
       </c>
       <c r="D10" t="n">
-        <v>20.32</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="11">
@@ -2182,13 +2182,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4615</v>
+        <v>4819</v>
       </c>
       <c r="C11" t="n">
-        <v>22462</v>
+        <v>18245</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="12">
@@ -2198,13 +2198,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3850</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.99</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="13">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2357</v>
+        <v>2487</v>
       </c>
       <c r="C13" t="n">
-        <v>9105</v>
+        <v>8420</v>
       </c>
       <c r="D13" t="n">
-        <v>68.79000000000001</v>
+        <v>88.64</v>
       </c>
     </row>
   </sheetData>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19933.866</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="4">
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>42333.99999999998</v>
+        <v>43753.53499999998</v>
       </c>
       <c r="D4" t="n">
-        <v>10.95</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18478</v>
+        <v>22826</v>
       </c>
       <c r="C5" t="n">
-        <v>28695</v>
+        <v>50799</v>
       </c>
       <c r="D5" t="n">
-        <v>29.33</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="6">
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34340</v>
+        <v>33198</v>
       </c>
       <c r="D6" t="n">
-        <v>20.06</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="7">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2607</v>
+        <v>2653</v>
       </c>
       <c r="C7" t="n">
-        <v>9529</v>
+        <v>8474</v>
       </c>
       <c r="D7" t="n">
-        <v>32.87</v>
+        <v>34.07</v>
       </c>
     </row>
     <row r="8">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089</v>
+        <v>1575</v>
       </c>
       <c r="C8" t="n">
-        <v>8330</v>
+        <v>3149</v>
       </c>
       <c r="D8" t="n">
-        <v>32.32</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="9">
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10519</v>
+        <v>2775</v>
       </c>
       <c r="D9" t="n">
-        <v>17.7</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="10">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7796</v>
+        <v>5117</v>
       </c>
       <c r="D10" t="n">
-        <v>22.945</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="11">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6889</v>
+        <v>4615</v>
       </c>
       <c r="C11" t="n">
-        <v>28678</v>
+        <v>22462</v>
       </c>
       <c r="D11" t="n">
-        <v>33.7808</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="12">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.375</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="13">
@@ -2447,13 +2447,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3170</v>
+        <v>2357</v>
       </c>
       <c r="C13" t="n">
-        <v>10852</v>
+        <v>9105</v>
       </c>
       <c r="D13" t="n">
-        <v>71.06999999999999</v>
+        <v>68.79000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.78</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="4">
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40489.40099999998</v>
+        <v>42333.99999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>11.82</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="5">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15883</v>
+        <v>18478</v>
       </c>
       <c r="C5" t="n">
-        <v>27063</v>
+        <v>28695</v>
       </c>
       <c r="D5" t="n">
-        <v>31.64</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="6">
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>33983</v>
+        <v>34340</v>
       </c>
       <c r="D6" t="n">
-        <v>21.68</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="7">
@@ -2584,13 +2584,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3674</v>
+        <v>2607</v>
       </c>
       <c r="C7" t="n">
-        <v>9393</v>
+        <v>9529</v>
       </c>
       <c r="D7" t="n">
-        <v>36.24</v>
+        <v>32.87</v>
       </c>
     </row>
     <row r="8">
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777</v>
+        <v>1089</v>
       </c>
       <c r="C8" t="n">
-        <v>8206</v>
+        <v>8330</v>
       </c>
       <c r="D8" t="n">
-        <v>34.93</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="9">
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10376</v>
+        <v>10519</v>
       </c>
       <c r="D9" t="n">
-        <v>18.84</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="10">
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7740</v>
+        <v>7796</v>
       </c>
       <c r="D10" t="n">
-        <v>25.03</v>
+        <v>22.945</v>
       </c>
     </row>
     <row r="11">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8986</v>
+        <v>6889</v>
       </c>
       <c r="C11" t="n">
-        <v>28493</v>
+        <v>28678</v>
       </c>
       <c r="D11" t="n">
-        <v>32.7217</v>
+        <v>33.7808</v>
       </c>
     </row>
     <row r="12">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.36</v>
+        <v>26.375</v>
       </c>
     </row>
     <row r="13">
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3841</v>
+        <v>3170</v>
       </c>
       <c r="C13" t="n">
-        <v>10769</v>
+        <v>10852</v>
       </c>
       <c r="D13" t="n">
-        <v>76.31999999999999</v>
+        <v>71.06999999999999</v>
       </c>
     </row>
   </sheetData>
